--- a/biology/Zoologie/Batrachus/Batrachus.xlsx
+++ b/biology/Zoologie/Batrachus/Batrachus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Batrachus est le nom scientifique de plusieurs genres d'animaux[1] :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Batrachus est le nom scientifique de plusieurs genres d'animaux :
 Batrachus Bloch &amp; Schneider, 1801, synonyme de Batrachoides Lacepède, 1800 (famille des Batrachoididae) ;
 Batrachus Klein, 1776, synonyme de Lophius Linnaeus, 1758 (famille des Lophiidae ;
 Batrachus Pomel, 1853 † (nom incertain) (famille des Anura) ;
@@ -516,9 +528,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>D'après WoRMS[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>D'après WoRMS :
 Batrachus algeriensis Guichenot, 1850, synonyme de Halobatrachus didactylus (Bloch &amp; Schneider, 1801)
 Batrachus apiatus Valenciennes, 1837, synonyme de Batrichthys apiatus (Valenciennes, 1837)
 Batrachus argentinus Berg, 1897, synonyme de Triathalassothia argentina (Berg, 1897)
